--- a/Project_Management/Sprint1/Scrum Board.xlsx
+++ b/Project_Management/Sprint1/Scrum Board.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_9248381DC2F30A436F107A39913E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +29,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Backlog:</t>
+  </si>
+  <si>
+    <t>User Storys:</t>
+  </si>
+  <si>
+    <t>To do:</t>
+  </si>
+  <si>
+    <t>Doing:</t>
+  </si>
+  <si>
+    <t>Review:</t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>Dar ideias no servidor de discord e discuti-las</t>
+  </si>
+  <si>
+    <t>Fazer a hierarquia de ficheiros e adiconá-los</t>
+  </si>
+  <si>
+    <t>Fazer fork ao projeto e adicionar os membros ao mesmo</t>
+  </si>
+  <si>
+    <t>Meeting semanal</t>
+  </si>
+  <si>
+    <t>Fazer servidor de discord para o trabalho e organiza-lo</t>
+  </si>
+  <si>
+    <t>Analisar o código dado</t>
+  </si>
+  <si>
+    <t>Começar a fazer o use case diagram</t>
+  </si>
+  <si>
+    <t>Jogar o jogo para conhecer melhor o projeto</t>
+  </si>
+  <si>
+    <t>Alterar o readme file no repositório git</t>
+  </si>
+  <si>
+    <t>Como um jogador novo deste tipo de jogos eu quero um tutorial para poder perceber como se começa a jogar</t>
+  </si>
+  <si>
+    <t>Como um jogador já com alguma experiência e horas no jogo gostava que houvessem casamentos e estes formacem alianças para expandir a paz e comércio</t>
+  </si>
+  <si>
+    <t>Como um jogador já com alguma experiência gostava de ter um sistema de preços conforme a demanda para que não possa abusar de loopholes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +98,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,15 +135,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -369,20 +466,95 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="139.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project_Management/Sprint1/Scrum Board.xlsx
+++ b/Project_Management/Sprint1/Scrum Board.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Backlog:</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Analisar o código dado</t>
-  </si>
-  <si>
-    <t>Começar a fazer o use case diagram</t>
   </si>
   <si>
     <t>Jogar o jogo para conhecer melhor o projeto</t>
@@ -90,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +106,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,10 +160,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,7 +483,7 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,16 +518,16 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -529,13 +535,10 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -543,18 +546,20 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
       <c r="G7" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_Management/Sprint1/Scrum Board.xlsx
+++ b/Project_Management/Sprint1/Scrum Board.xlsx
@@ -472,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,9 +526,6 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -556,6 +553,11 @@
       <c r="D7" s="3"/>
       <c r="G7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Management/Sprint1/Scrum Board.xlsx
+++ b/Project_Management/Sprint1/Scrum Board.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Backlog:</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Como um jogador já com alguma experiência gostava de ter um sistema de preços conforme a demanda para que não possa abusar de loopholes</t>
+  </si>
+  <si>
+    <t>Pesquisar como se joga o jogo</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +548,9 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>

--- a/Project_Management/Sprint1/Scrum Board.xlsx
+++ b/Project_Management/Sprint1/Scrum Board.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Backlog:</t>
   </si>
@@ -74,16 +74,10 @@
     <t>Alterar o readme file no repositório git</t>
   </si>
   <si>
-    <t>Como um jogador novo deste tipo de jogos eu quero um tutorial para poder perceber como se começa a jogar</t>
-  </si>
-  <si>
-    <t>Como um jogador já com alguma experiência e horas no jogo gostava que houvessem casamentos e estes formacem alianças para expandir a paz e comércio</t>
-  </si>
-  <si>
-    <t>Como um jogador já com alguma experiência gostava de ter um sistema de preços conforme a demanda para que não possa abusar de loopholes</t>
-  </si>
-  <si>
     <t>Pesquisar como se joga o jogo</t>
+  </si>
+  <si>
+    <t>Fazer pdf dos 3 User Stories mais votados pela equipa e submeter no moodle</t>
   </si>
 </sst>
 </file>
@@ -483,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G8"/>
+  <dimension ref="B3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +490,7 @@
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="51.85546875" customWidth="1"/>
+    <col min="7" max="7" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -520,37 +514,20 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="2"/>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
@@ -564,6 +541,26 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Management/Sprint1/Scrum Board.xlsx
+++ b/Project_Management/Sprint1/Scrum Board.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Backlog:</t>
   </si>
@@ -74,10 +74,16 @@
     <t>Alterar o readme file no repositório git</t>
   </si>
   <si>
+    <t>Como um jogador novo deste tipo de jogos eu quero um tutorial para poder perceber como se começa a jogar</t>
+  </si>
+  <si>
+    <t>Como um jogador já com alguma experiência e horas no jogo gostava que houvessem casamentos e estes formacem alianças para expandir a paz e comércio</t>
+  </si>
+  <si>
+    <t>Como um jogador já com alguma experiência gostava de ter um sistema de preços conforme a demanda para que não possa abusar de loopholes</t>
+  </si>
+  <si>
     <t>Pesquisar como se joga o jogo</t>
-  </si>
-  <si>
-    <t>Fazer pdf dos 3 User Stories mais votados pela equipa e submeter no moodle</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G12"/>
+  <dimension ref="B3:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +496,7 @@
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" customWidth="1"/>
-    <col min="7" max="7" width="68.85546875" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -514,20 +520,37 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
@@ -541,26 +564,6 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
